--- a/MyprojectPractice/TestData/InputData.xlsx
+++ b/MyprojectPractice/TestData/InputData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Narendra" sheetId="2" r:id="rId2"/>
     <sheet name="Soni" sheetId="3" r:id="rId3"/>
+    <sheet name="searchparameter" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
   <si>
     <t>TC_ID</t>
   </si>
@@ -70,6 +71,105 @@
   </si>
   <si>
     <t>DDSD</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>Complition</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>fgf</t>
+  </si>
+  <si>
+    <t>fgfgf</t>
+  </si>
+  <si>
+    <t>vbvbfv</t>
+  </si>
+  <si>
+    <t>TestCaseDescription</t>
+  </si>
+  <si>
+    <t>ExecutionFlag</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>search Rahul1</t>
+  </si>
+  <si>
+    <t>search Rahul2</t>
+  </si>
+  <si>
+    <t>search Rahul3</t>
+  </si>
+  <si>
+    <t>search Rahul4</t>
+  </si>
+  <si>
+    <t>search Rahul5</t>
+  </si>
+  <si>
+    <t>search Rahul6</t>
+  </si>
+  <si>
+    <t>search Rahul7</t>
+  </si>
+  <si>
+    <t>search Rahul8</t>
+  </si>
+  <si>
+    <t>search Rahul9</t>
+  </si>
+  <si>
+    <t>search Rahul10</t>
+  </si>
+  <si>
+    <t>search Rahul11</t>
+  </si>
+  <si>
+    <t>search Rahul12</t>
+  </si>
+  <si>
+    <t>search Rahul13</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SMOKE</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Functional</t>
   </si>
 </sst>
 </file>
@@ -435,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -752,4 +852,390 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MyprojectPractice/TestData/InputData.xlsx
+++ b/MyprojectPractice/TestData/InputData.xlsx
@@ -859,7 +859,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
